--- a/Unity/Assets/Config/Excel/AbilityConfig/SeasonConfig/SeasonBringUpCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SeasonConfig/SeasonBringUpCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SeasonConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888EC08A-6666-42AF-88D0-373E17F34DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112048F-D071-4614-9A67-B424B1822DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="赛季加成" sheetId="2" r:id="rId1"/>
@@ -696,9 +696,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,9 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,6 +838,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1130,10 +1127,10 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,18 +1156,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1189,12 +1186,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1207,18 +1204,18 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1237,12 +1234,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1293,7 +1290,7 @@
       <c r="G6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J6" t="str">
@@ -1301,7 +1298,7 @@
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>160</v>
@@ -1320,7 +1317,7 @@
       <c r="G7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J7" t="str">
@@ -1328,7 +1325,7 @@
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K7" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>161</v>
@@ -1347,7 +1344,7 @@
       <c r="G8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J8" t="str">
@@ -1355,7 +1352,7 @@
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K8" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>162</v>
@@ -1374,7 +1371,7 @@
       <c r="G9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J9" t="str">
@@ -1382,7 +1379,7 @@
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K9" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>163</v>
@@ -1401,15 +1398,15 @@
       <c r="G10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J10" t="str">
-        <f>"ResIcon_"&amp;B10</f>
+        <f t="shared" ref="J10:J21" si="1">"ResIcon_"&amp;B10</f>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K10" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>175</v>
@@ -1428,15 +1425,15 @@
       <c r="G11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J11" t="str">
-        <f>"ResIcon_"&amp;B11</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K11" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>176</v>
@@ -1455,15 +1452,15 @@
       <c r="G12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J12" t="str">
-        <f>"ResIcon_"&amp;B12</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K12" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>177</v>
@@ -1482,15 +1479,15 @@
       <c r="G13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J13" t="str">
-        <f>"ResIcon_"&amp;B13</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K13" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>178</v>
@@ -1509,15 +1506,15 @@
       <c r="G14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J14" t="str">
-        <f>"ResIcon_"&amp;B14</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K14" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>179</v>
@@ -1536,15 +1533,15 @@
       <c r="G15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J15" t="str">
-        <f>"ResIcon_"&amp;B15</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K15" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>180</v>
@@ -1563,15 +1560,15 @@
       <c r="G16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J16" t="str">
-        <f>"ResIcon_"&amp;B16</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K16" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>181</v>
@@ -1590,15 +1587,15 @@
       <c r="G17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J17" t="str">
-        <f>"ResIcon_"&amp;B17</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K17" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>182</v>
@@ -1617,15 +1614,15 @@
       <c r="G18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J18" t="str">
-        <f>"ResIcon_"&amp;B18</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K18" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>156</v>
@@ -1644,15 +1641,15 @@
       <c r="G19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J19" t="str">
-        <f>"ResIcon_"&amp;B19</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K19" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>157</v>
@@ -1671,15 +1668,15 @@
       <c r="G20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J20" t="str">
-        <f>"ResIcon_"&amp;B20</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K20" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>158</v>
@@ -1698,15 +1695,15 @@
       <c r="G21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J21" t="str">
-        <f>"ResIcon_"&amp;B21</f>
+        <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K21" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>159</v>
@@ -1725,7 +1722,7 @@
       <c r="G22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J22" t="str">
@@ -1733,7 +1730,7 @@
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K22" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>164</v>
@@ -1752,7 +1749,7 @@
       <c r="G23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J23" t="str">
@@ -1760,7 +1757,7 @@
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K23" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>165</v>
@@ -1779,7 +1776,7 @@
       <c r="G24" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J24" t="str">
@@ -1787,7 +1784,7 @@
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K24" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>166</v>
@@ -1806,7 +1803,7 @@
       <c r="G25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J25" t="str">
@@ -1814,7 +1811,7 @@
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K25" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>167</v>
@@ -1833,15 +1830,15 @@
       <c r="G26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J26" t="str">
-        <f>"ResIcon_"&amp;B26</f>
+        <f t="shared" ref="J26:J31" si="2">"ResIcon_"&amp;B26</f>
         <v>ResIcon_SeasonBringUp_GoldRewards</v>
       </c>
       <c r="K26" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>183</v>
@@ -1860,15 +1857,15 @@
       <c r="G27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J27" t="str">
-        <f>"ResIcon_"&amp;B27</f>
+        <f t="shared" si="2"/>
         <v>ResIcon_SeasonBringUp_GoldRewards</v>
       </c>
       <c r="K27" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>184</v>
@@ -1887,15 +1884,15 @@
       <c r="G28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J28" t="str">
-        <f>"ResIcon_"&amp;B28</f>
+        <f t="shared" si="2"/>
         <v>ResIcon_SeasonBringUp_GoldRewards</v>
       </c>
       <c r="K28" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>185</v>
@@ -1914,15 +1911,15 @@
       <c r="G29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J29" t="str">
-        <f>"ResIcon_"&amp;B29</f>
+        <f t="shared" si="2"/>
         <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K29" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>153</v>
@@ -1941,15 +1938,15 @@
       <c r="G30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J30" t="str">
-        <f>"ResIcon_"&amp;B30</f>
+        <f t="shared" si="2"/>
         <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K30" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>154</v>
@@ -1968,15 +1965,15 @@
       <c r="G31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J31" t="str">
-        <f>"ResIcon_"&amp;B31</f>
+        <f t="shared" si="2"/>
         <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K31" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>155</v>
@@ -1995,15 +1992,15 @@
       <c r="G32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="9">
         <v>3</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32" si="1">"ResIcon_"&amp;B32</f>
+        <f t="shared" ref="J32" si="3">"ResIcon_"&amp;B32</f>
         <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K32" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>202</v>
@@ -2022,7 +2019,7 @@
       <c r="G33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J33" t="str">
@@ -2030,7 +2027,7 @@
         <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K33" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>168</v>
@@ -2049,7 +2046,7 @@
       <c r="G34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J34" t="str">
@@ -2057,7 +2054,7 @@
         <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K34" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>169</v>
@@ -2076,7 +2073,7 @@
       <c r="G35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J35" t="str">
@@ -2084,7 +2081,7 @@
         <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K35" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>170</v>
@@ -2103,7 +2100,7 @@
       <c r="G36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J36" t="str">
@@ -2111,7 +2108,7 @@
         <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K36" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>171</v>
@@ -2130,7 +2127,7 @@
       <c r="G37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J37" t="str">
@@ -2138,7 +2135,7 @@
         <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K37" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>172</v>
@@ -2157,7 +2154,7 @@
       <c r="G38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J38" t="str">
@@ -2165,7 +2162,7 @@
         <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K38" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>173</v>
@@ -2184,7 +2181,7 @@
       <c r="G39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J39" t="str">
@@ -2192,7 +2189,7 @@
         <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K39" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>174</v>
@@ -2211,7 +2208,7 @@
       <c r="G40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J40" t="str">
@@ -2219,7 +2216,7 @@
         <v>ResIcon_SeasonBringUp_ExtraLives</v>
       </c>
       <c r="K40" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>186</v>
@@ -2238,7 +2235,7 @@
       <c r="G41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J41" t="str">
@@ -2246,7 +2243,7 @@
         <v>ResIcon_SeasonBringUp_ExtraLives</v>
       </c>
       <c r="K41" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>187</v>
@@ -2265,7 +2262,7 @@
       <c r="G42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J42" t="str">
@@ -2273,7 +2270,7 @@
         <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K42" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>188</v>
@@ -2292,7 +2289,7 @@
       <c r="G43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J43" t="str">
@@ -2300,7 +2297,7 @@
         <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K43" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>189</v>
@@ -2319,7 +2316,7 @@
       <c r="G44" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J44" t="str">
@@ -2327,7 +2324,7 @@
         <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K44" s="2">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>190</v>
@@ -2346,15 +2343,15 @@
       <c r="G45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="9">
         <v>3</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45:J46" si="2">"ResIcon_"&amp;B45</f>
+        <f t="shared" ref="J45:J46" si="4">"ResIcon_"&amp;B45</f>
         <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K45" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>194</v>
@@ -2373,15 +2370,15 @@
       <c r="G46" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="9">
         <v>4</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K46" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>198</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SeasonConfig/SeasonBringUpCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SeasonConfig/SeasonBringUpCfg.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SeasonConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112048F-D071-4614-9A67-B424B1822DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3FBAF-5321-4FC7-A32B-0499F70DDCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="赛季加成" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="178">
   <si>
     <t>##var</t>
   </si>
@@ -179,9 +182,6 @@
     <t>SeasonBringUp_AttackInterval</t>
   </si>
   <si>
-    <t>SeasonBringUp_GoldRewards</t>
-  </si>
-  <si>
     <t>SeasonBringUp_ExtraLives</t>
   </si>
   <si>
@@ -227,9 +227,6 @@
     <t>Text_Key_ExtendName_BringUp__BaseHealth_2</t>
   </si>
   <si>
-    <t>Text_Key_ExtendName_BringUp__BaseHealth_3</t>
-  </si>
-  <si>
     <t>Text_Key_ExtendName_BringUp__BaseRegen_1</t>
   </si>
   <si>
@@ -254,12 +251,6 @@
     <t>Text_Key_ExtendName_BringUp__AttackInterval_3</t>
   </si>
   <si>
-    <t>Text_Key_ExtendName_BringUp__GoldRewards_1</t>
-  </si>
-  <si>
-    <t>Text_Key_ExtendName_BringUp__GoldRewards_2</t>
-  </si>
-  <si>
     <t>Text_Key_ExtendName_BringUp__ExtraLives_1</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>Text_Key_Name_BringUp__BaseHealth_2</t>
   </si>
   <si>
-    <t>Text_Key_Name_BringUp__BaseHealth_3</t>
-  </si>
-  <si>
     <t>Text_Key_Name_BringUp__BaseRegen_1</t>
   </si>
   <si>
@@ -335,12 +323,6 @@
     <t>Text_Key_Name_BringUp__AttackInterval_3</t>
   </si>
   <si>
-    <t>Text_Key_Name_BringUp__GoldRewards_1</t>
-  </si>
-  <si>
-    <t>Text_Key_Name_BringUp__GoldRewards_2</t>
-  </si>
-  <si>
     <t>Text_Key_Name_BringUp__ExtraLives_1</t>
   </si>
   <si>
@@ -398,12 +380,6 @@
     <t>Text_Key_ExtendName_BringUp__AttackInterval_0</t>
   </si>
   <si>
-    <t>Text_Key_Name_BringUp__GoldRewards_0</t>
-  </si>
-  <si>
-    <t>Text_Key_ExtendName_BringUp__GoldRewards_0</t>
-  </si>
-  <si>
     <t>Text_Key_Name_BringUp__ExtraLives_0</t>
   </si>
   <si>
@@ -482,9 +458,6 @@
     <t>Text_Key_Desc_BringUp__BaseHealth_2</t>
   </si>
   <si>
-    <t>Text_Key_Desc_BringUp__BaseHealth_3</t>
-  </si>
-  <si>
     <t>Text_Key_Desc_BringUp__BaseRegen_0</t>
   </si>
   <si>
@@ -518,15 +491,6 @@
     <t>Text_Key_Desc_BringUp__AttackInterval_3</t>
   </si>
   <si>
-    <t>Text_Key_Desc_BringUp__GoldRewards_0</t>
-  </si>
-  <si>
-    <t>Text_Key_Desc_BringUp__GoldRewards_1</t>
-  </si>
-  <si>
-    <t>Text_Key_Desc_BringUp__GoldRewards_2</t>
-  </si>
-  <si>
     <t>Text_Key_Desc_BringUp__ExtraLives_0</t>
   </si>
   <si>
@@ -596,9 +560,6 @@
     <t>GlobalBuffAdd_BaseHealth_2</t>
   </si>
   <si>
-    <t>GlobalBuffAdd_BaseHealth_3</t>
-  </si>
-  <si>
     <t>GlobalBuffAdd_BaseRegen_0</t>
   </si>
   <si>
@@ -632,15 +593,6 @@
     <t>GlobalBuffAdd_AttackInterval_3</t>
   </si>
   <si>
-    <t>GlobalBuffAdd_GoldRewards_0</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_GoldRewards_1</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_GoldRewards_2</t>
-  </si>
-  <si>
     <t>GlobalBuffAdd_ExtraLives_0</t>
   </si>
   <si>
@@ -666,30 +618,6 @@
   </si>
   <si>
     <t>GlobalBuffAdd_DiamondRewards_3</t>
-  </si>
-  <si>
-    <t>Text_Key_Name_BringUp__DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>Text_Key_ExtendName_BringUp__DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>Text_Key_Desc_BringUp__DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_DiamondRewards_4</t>
-  </si>
-  <si>
-    <t>Text_Key_Name_BringUp__MaxTowers_3</t>
-  </si>
-  <si>
-    <t>Text_Key_ExtendName_BringUp__MaxTowers_3</t>
-  </si>
-  <si>
-    <t>Text_Key_Desc_BringUp__MaxTowers_3</t>
-  </si>
-  <si>
-    <t>GlobalBuffAdd_MaxTowers_3</t>
   </si>
 </sst>
 </file>
@@ -813,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -839,9 +767,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -859,6 +784,356 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="技能"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="养成"/>
+      <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
+      <sheetName val="参考"/>
+      <sheetName val="工具"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>1级数值</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>2级数值</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>3级数值</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>4级数值</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>5级数值</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>升2级消耗</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>升3级消耗</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>升4级消耗</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>升5级消耗</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>升6级消耗</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>SeasonBringUp_Damage</v>
+          </cell>
+          <cell r="C2">
+            <v>10</v>
+          </cell>
+          <cell r="D2">
+            <v>20</v>
+          </cell>
+          <cell r="E2">
+            <v>30</v>
+          </cell>
+          <cell r="H2">
+            <v>50</v>
+          </cell>
+          <cell r="I2">
+            <v>100</v>
+          </cell>
+          <cell r="J2">
+            <v>200</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v/>
+          </cell>
+          <cell r="L2" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>SeasonBringUp_AttackRange</v>
+          </cell>
+          <cell r="C3">
+            <v>5</v>
+          </cell>
+          <cell r="D3">
+            <v>10</v>
+          </cell>
+          <cell r="E3">
+            <v>15</v>
+          </cell>
+          <cell r="H3">
+            <v>50</v>
+          </cell>
+          <cell r="I3">
+            <v>100</v>
+          </cell>
+          <cell r="J3">
+            <v>200</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v/>
+          </cell>
+          <cell r="L3" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>SeasonBringUp_AttackInterval</v>
+          </cell>
+          <cell r="C4">
+            <v>-10</v>
+          </cell>
+          <cell r="D4">
+            <v>-20</v>
+          </cell>
+          <cell r="E4">
+            <v>-30</v>
+          </cell>
+          <cell r="H4">
+            <v>50</v>
+          </cell>
+          <cell r="I4">
+            <v>100</v>
+          </cell>
+          <cell r="J4">
+            <v>200</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v/>
+          </cell>
+          <cell r="L4" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>SeasonBringUp_StartingGold</v>
+          </cell>
+          <cell r="C5">
+            <v>10</v>
+          </cell>
+          <cell r="D5">
+            <v>20</v>
+          </cell>
+          <cell r="E5">
+            <v>30</v>
+          </cell>
+          <cell r="H5">
+            <v>50</v>
+          </cell>
+          <cell r="I5">
+            <v>100</v>
+          </cell>
+          <cell r="J5">
+            <v>200</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v/>
+          </cell>
+          <cell r="L5" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>SeasonBringUp_TowerCost</v>
+          </cell>
+          <cell r="C6">
+            <v>-10</v>
+          </cell>
+          <cell r="D6">
+            <v>-20</v>
+          </cell>
+          <cell r="E6">
+            <v>-30</v>
+          </cell>
+          <cell r="H6">
+            <v>50</v>
+          </cell>
+          <cell r="I6">
+            <v>100</v>
+          </cell>
+          <cell r="J6">
+            <v>200</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v/>
+          </cell>
+          <cell r="L6" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>SeasonBringUp_MaxTowers</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+          <cell r="H7">
+            <v>50</v>
+          </cell>
+          <cell r="I7">
+            <v>100</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v/>
+          </cell>
+          <cell r="K7" t="str">
+            <v/>
+          </cell>
+          <cell r="L7" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>SeasonBringUp_BaseHealth</v>
+          </cell>
+          <cell r="C8">
+            <v>5</v>
+          </cell>
+          <cell r="D8">
+            <v>10</v>
+          </cell>
+          <cell r="H8">
+            <v>50</v>
+          </cell>
+          <cell r="I8">
+            <v>100</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v/>
+          </cell>
+          <cell r="K8" t="str">
+            <v/>
+          </cell>
+          <cell r="L8" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>SeasonBringUp_BaseRegen</v>
+          </cell>
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9">
+            <v>5</v>
+          </cell>
+          <cell r="E9">
+            <v>10</v>
+          </cell>
+          <cell r="H9">
+            <v>50</v>
+          </cell>
+          <cell r="I9">
+            <v>100</v>
+          </cell>
+          <cell r="J9">
+            <v>200</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v/>
+          </cell>
+          <cell r="L9" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>SeasonBringUp_ExtraLives</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="H10">
+            <v>50</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v/>
+          </cell>
+          <cell r="J10" t="str">
+            <v/>
+          </cell>
+          <cell r="K10" t="str">
+            <v/>
+          </cell>
+          <cell r="L10" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SeasonBringUp_DiamondRewards</v>
+          </cell>
+          <cell r="C11">
+            <v>5</v>
+          </cell>
+          <cell r="D11">
+            <v>10</v>
+          </cell>
+          <cell r="E11">
+            <v>15</v>
+          </cell>
+          <cell r="H11">
+            <v>50</v>
+          </cell>
+          <cell r="I11">
+            <v>100</v>
+          </cell>
+          <cell r="J11">
+            <v>200</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v/>
+          </cell>
+          <cell r="L11" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E364D7A-8C46-40DD-982B-0549B49F7F34}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,26 +1557,27 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ref="J6:J44" si="0">"ResIcon_"&amp;B6</f>
+        <f t="shared" ref="J6:J39" si="0">"ResIcon_"&amp;B6</f>
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K6" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B6,[1]养成!$B:$L,7+I6,FALSE)="",0,VLOOKUP(B6,[1]养成!$B:$L,7+I6,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1309,26 +1585,27 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K7" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B7,[1]养成!$B:$L,7+I7,FALSE)="",0,VLOOKUP(B7,[1]养成!$B:$L,7+I7,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1336,26 +1613,27 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K8" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B8,[1]养成!$B:$L,7+I8,FALSE)="",0,VLOOKUP(B8,[1]养成!$B:$L,7+I8,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1363,26 +1641,27 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_Damage</v>
       </c>
       <c r="K9" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B9,[1]养成!$B:$L,7+I9,FALSE)="",0,VLOOKUP(B9,[1]养成!$B:$L,7+I9,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1390,26 +1669,27 @@
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ref="J10:J21" si="1">"ResIcon_"&amp;B10</f>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K10" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B10,[1]养成!$B:$L,7+I10,FALSE)="",0,VLOOKUP(B10,[1]养成!$B:$L,7+I10,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1417,26 +1697,27 @@
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K11" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B11,[1]养成!$B:$L,7+I11,FALSE)="",0,VLOOKUP(B11,[1]养成!$B:$L,7+I11,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1444,26 +1725,27 @@
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K12" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B12,[1]养成!$B:$L,7+I12,FALSE)="",0,VLOOKUP(B12,[1]养成!$B:$L,7+I12,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1471,26 +1753,27 @@
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackRange</v>
       </c>
       <c r="K13" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B13,[1]养成!$B:$L,7+I13,FALSE)="",0,VLOOKUP(B13,[1]养成!$B:$L,7+I13,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1498,26 +1781,27 @@
         <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K14" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B14,[1]养成!$B:$L,7+I14,FALSE)="",0,VLOOKUP(B14,[1]养成!$B:$L,7+I14,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1525,26 +1809,27 @@
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>112</v>
+        <v>132</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K15" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B15,[1]养成!$B:$L,7+I15,FALSE)="",0,VLOOKUP(B15,[1]养成!$B:$L,7+I15,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,26 +1837,27 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>113</v>
+        <v>133</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K16" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B16,[1]养成!$B:$L,7+I16,FALSE)="",0,VLOOKUP(B16,[1]养成!$B:$L,7+I16,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -1579,26 +1865,27 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>114</v>
+        <v>134</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_AttackInterval</v>
       </c>
       <c r="K17" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B17,[1]养成!$B:$L,7+I17,FALSE)="",0,VLOOKUP(B17,[1]养成!$B:$L,7+I17,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -1606,26 +1893,27 @@
         <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K18" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B18,[1]养成!$B:$L,7+I18,FALSE)="",0,VLOOKUP(B18,[1]养成!$B:$L,7+I18,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -1633,26 +1921,27 @@
         <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K19" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B19,[1]养成!$B:$L,7+I19,FALSE)="",0,VLOOKUP(B19,[1]养成!$B:$L,7+I19,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -1660,26 +1949,27 @@
         <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K20" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B20,[1]养成!$B:$L,7+I20,FALSE)="",0,VLOOKUP(B20,[1]养成!$B:$L,7+I20,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -1687,26 +1977,27 @@
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
         <v>ResIcon_SeasonBringUp_StartingGold</v>
       </c>
       <c r="K21" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B21,[1]养成!$B:$L,7+I21,FALSE)="",0,VLOOKUP(B21,[1]养成!$B:$L,7+I21,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -1714,26 +2005,27 @@
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K22" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B22,[1]养成!$B:$L,7+I22,FALSE)="",0,VLOOKUP(B22,[1]养成!$B:$L,7+I22,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -1741,26 +2033,27 @@
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K23" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B23,[1]养成!$B:$L,7+I23,FALSE)="",0,VLOOKUP(B23,[1]养成!$B:$L,7+I23,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -1768,26 +2061,27 @@
         <v>27</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K24" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B24,[1]养成!$B:$L,7+I24,FALSE)="",0,VLOOKUP(B24,[1]养成!$B:$L,7+I24,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -1795,404 +2089,419 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_SeasonBringUp_TowerCost</v>
       </c>
       <c r="K25" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B25,[1]养成!$B:$L,7+I25,FALSE)="",0,VLOOKUP(B25,[1]养成!$B:$L,7+I25,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>111</v>
+      <c r="I26" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:J31" si="2">"ResIcon_"&amp;B26</f>
-        <v>ResIcon_SeasonBringUp_GoldRewards</v>
+        <f t="shared" ref="J26:J28" si="2">"ResIcon_"&amp;B26</f>
+        <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K26" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B26,[1]养成!$B:$L,7+I26,FALSE)="",0,VLOOKUP(B26,[1]养成!$B:$L,7+I26,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="2"/>
-        <v>ResIcon_SeasonBringUp_GoldRewards</v>
+        <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K27" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B27,[1]养成!$B:$L,7+I27,FALSE)="",0,VLOOKUP(B27,[1]养成!$B:$L,7+I27,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>ResIcon_SeasonBringUp_GoldRewards</v>
+        <v>ResIcon_SeasonBringUp_MaxTowers</v>
       </c>
       <c r="K28" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B28,[1]养成!$B:$L,7+I28,FALSE)="",0,VLOOKUP(B28,[1]养成!$B:$L,7+I28,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_SeasonBringUp_MaxTowers</v>
+        <f t="shared" si="0"/>
+        <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K29" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B29,[1]养成!$B:$L,7+I29,FALSE)="",0,VLOOKUP(B29,[1]养成!$B:$L,7+I29,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_SeasonBringUp_MaxTowers</v>
+        <f t="shared" si="0"/>
+        <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K30" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B30,[1]养成!$B:$L,7+I30,FALSE)="",0,VLOOKUP(B30,[1]养成!$B:$L,7+I30,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_SeasonBringUp_MaxTowers</v>
+        <f t="shared" si="0"/>
+        <v>ResIcon_SeasonBringUp_BaseHealth</v>
       </c>
       <c r="K31" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B31,[1]养成!$B:$L,7+I31,FALSE)="",0,VLOOKUP(B31,[1]养成!$B:$L,7+I31,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I32" s="9">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32" si="3">"ResIcon_"&amp;B32</f>
-        <v>ResIcon_SeasonBringUp_MaxTowers</v>
+        <f t="shared" si="0"/>
+        <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K32" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B32,[1]养成!$B:$L,7+I32,FALSE)="",0,VLOOKUP(B32,[1]养成!$B:$L,7+I32,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseHealth</v>
+        <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K33" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B33,[1]养成!$B:$L,7+I33,FALSE)="",0,VLOOKUP(B33,[1]养成!$B:$L,7+I33,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseHealth</v>
+        <v>ResIcon_SeasonBringUp_BaseRegen</v>
       </c>
       <c r="K34" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B34,[1]养成!$B:$L,7+I34,FALSE)="",0,VLOOKUP(B34,[1]养成!$B:$L,7+I34,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseHealth</v>
+        <v>ResIcon_SeasonBringUp_ExtraLives</v>
       </c>
       <c r="K35" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B35,[1]养成!$B:$L,7+I35,FALSE)="",0,VLOOKUP(B35,[1]养成!$B:$L,7+I35,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseHealth</v>
+        <v>ResIcon_SeasonBringUp_ExtraLives</v>
       </c>
       <c r="K36" s="2">
-        <v>300</v>
+        <f>IF(VLOOKUP(B36,[1]养成!$B:$L,7+I36,FALSE)="",0,VLOOKUP(B36,[1]养成!$B:$L,7+I36,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>111</v>
+        <v>137</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseRegen</v>
+        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K37" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B37,[1]养成!$B:$L,7+I37,FALSE)="",0,VLOOKUP(B37,[1]养成!$B:$L,7+I37,FALSE))</f>
+        <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseRegen</v>
+        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K38" s="2">
-        <v>80</v>
+        <f>IF(VLOOKUP(B38,[1]养成!$B:$L,7+I38,FALSE)="",0,VLOOKUP(B38,[1]养成!$B:$L,7+I38,FALSE))</f>
+        <v>100</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>113</v>
+        <v>139</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_BaseRegen</v>
+        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K39" s="2">
-        <v>150</v>
+        <f>IF(VLOOKUP(B39,[1]养成!$B:$L,7+I39,FALSE)="",0,VLOOKUP(B39,[1]养成!$B:$L,7+I39,FALSE))</f>
+        <v>200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -2200,188 +2509,27 @@
         <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>111</v>
+        <v>176</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_ExtraLives</v>
+        <f t="shared" ref="J40" si="3">"ResIcon_"&amp;B40</f>
+        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
       </c>
       <c r="K40" s="2">
-        <v>40</v>
+        <f>IF(VLOOKUP(B40,[1]养成!$B:$L,7+I40,FALSE)="",0,VLOOKUP(B40,[1]养成!$B:$L,7+I40,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_ExtraLives</v>
-      </c>
-      <c r="K41" s="2">
-        <v>80</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
-      </c>
-      <c r="K42" s="2">
-        <v>40</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
-      </c>
-      <c r="K43" s="2">
-        <v>80</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
-      </c>
-      <c r="K44" s="2">
-        <v>150</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I45" s="9">
-        <v>3</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" ref="J45:J46" si="4">"ResIcon_"&amp;B45</f>
-        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
-      </c>
-      <c r="K45" s="2">
-        <v>300</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="9">
-        <v>4</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_SeasonBringUp_DiamondRewards</v>
-      </c>
-      <c r="K46" s="2">
-        <v>600</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
